--- a/document/エンティティ定義書.xlsx
+++ b/document/エンティティ定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ULTIMARK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFile\転職活動\ポートフォリオ\petata\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA303D7-8FC8-4BED-AE0F-16FDFF0F59CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032EE43-F807-4E4F-830A-9B6DF7761B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{C645DA31-2A5F-49ED-95AE-DABF8EF6EA56}"/>
+    <workbookView xWindow="-120" yWindow="16530" windowWidth="29040" windowHeight="15990" xr2:uid="{EF487728-AEBA-4EF4-91C7-9CA91949E2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="101">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -57,7 +65,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2020/08/11</t>
+    <t>2020/08/12</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -178,85 +186,100 @@
     <t>Yes (PK)</t>
   </si>
   <si>
-    <t>管理者ID</t>
-  </si>
-  <si>
-    <t>admin_user_id</t>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>@VARCHAR</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>@DATETIME</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>リレーションシップ情報(FK側)</t>
+  </si>
+  <si>
+    <t>動詞句</t>
+  </si>
+  <si>
+    <t>参照先エンティティ名</t>
+  </si>
+  <si>
+    <t>参照先カラムリスト</t>
+  </si>
+  <si>
+    <t>リレーションシップ情報(PK側)</t>
+  </si>
+  <si>
+    <t>参照元エンティティ名</t>
+  </si>
+  <si>
+    <t>参照元カラムリスト</t>
+  </si>
+  <si>
+    <t>binder_id</t>
+  </si>
+  <si>
+    <t>画像IDはハッシュ文字列</t>
+  </si>
+  <si>
+    <t>バインダーID</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+  </si>
+  <si>
+    <t>アップロードユーザーID</t>
+  </si>
+  <si>
+    <t>upload_user_id</t>
+  </si>
+  <si>
     <t>users.id</t>
   </si>
   <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>@VARCHAR</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>@DATETIME</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>リレーションシップ情報(FK側)</t>
-  </si>
-  <si>
-    <t>動詞句</t>
-  </si>
-  <si>
-    <t>参照先エンティティ名</t>
-  </si>
-  <si>
-    <t>参照先カラムリスト</t>
-  </si>
-  <si>
-    <t>リレーションシップ情報(PK側)</t>
-  </si>
-  <si>
-    <t>参照元エンティティ名</t>
-  </si>
-  <si>
-    <t>参照元カラムリスト</t>
-  </si>
-  <si>
-    <t>binder_id</t>
-  </si>
-  <si>
-    <t>画像IDはハッシュ文字列</t>
-  </si>
-  <si>
-    <t>バインダーID</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
+    <t>表示フラグ</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[0]非表示[1]表示</t>
   </si>
   <si>
     <t>image_id</t>
@@ -313,11 +336,16 @@
     <t>ユーザーID</t>
   </si>
   <si>
+    <t>権限レベル</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>[1]閲覧[2]管理</t>
+  </si>
+  <si>
     <t>makura016</t>
-  </si>
-  <si>
-    <t>makura016</t>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -1551,7 +1579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D68639D-822C-498C-81B5-1C4772966303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043CB4C0-6285-4F10-96F6-68D1865B6A37}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1582,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2069,11 +2097,626 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89A9ED9-8367-461C-87AA-2495629BA77F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE63032-3042-41F9-9790-F1DE084B4FAE}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="29">
+        <v>6</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="84"/>
+      <c r="G25" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="32">
+        <v>1</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="80"/>
+      <c r="G26" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="29">
+        <v>2</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="78"/>
+      <c r="G27" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9214963-D93C-4449-BD23-C0CEB0978CDB}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{D3F8BFFF-39AA-4D19-93C7-F4D46098B193}"/>
+    <hyperlink ref="C4" location="'画像'!A1" display="'画像'!A1" xr:uid="{B946A29E-6CF9-48C6-8DA3-7B6C30E59114}"/>
+    <hyperlink ref="C5" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{E44FC88B-6B44-4A91-AC34-1A7644DFB75E}"/>
+    <hyperlink ref="C6" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{7B50D38E-A7AB-41E3-AC13-EEF84776A055}"/>
+    <hyperlink ref="C7" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{837E06F2-5F1F-4109-A9B9-B193FFF3FF82}"/>
+    <hyperlink ref="C8" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{2764359F-3604-4904-9CCF-E8BC46E741E4}"/>
+    <hyperlink ref="C9" location="'閲覧権限'!A1" display="'閲覧権限'!A1" xr:uid="{1764E190-8DB4-45C6-8825-1E41CA35DAC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3812F7-936A-4C6B-891F-AA0C90ECC16C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="20.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A80AF94-EFFF-47C8-AD2A-B335315EC08F}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2105,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2142,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -2156,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -2174,9 +2817,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2255,16 +2896,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
@@ -2278,17 +2919,15 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>49</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E16" s="55"/>
       <c r="F16" s="64" t="s">
         <v>36</v>
       </c>
@@ -2296,168 +2935,168 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="29">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29">
-        <v>5</v>
-      </c>
-      <c r="B18" s="57" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C20" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
+      <c r="G20" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="68" t="s">
+      <c r="B23" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="40" t="s">
+      <c r="C23" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="F23" s="72"/>
+      <c r="G23" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="81" t="s">
+      <c r="B26" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
+      <c r="C26" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="61" t="s">
+      <c r="F26" s="84"/>
+      <c r="G26" s="61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="32">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="32">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="60" t="s">
+      <c r="B27" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="79" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="29">
+      <c r="D27" s="80"/>
+      <c r="E27" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="58" t="s">
+      <c r="B28" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
+      <c r="D28" s="76"/>
+      <c r="E28" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="41" t="s">
-        <v>69</v>
+      <c r="A29" s="29">
+        <v>3</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="78"/>
+      <c r="G29" s="58" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2474,203 +3113,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB8D8F7-CBE3-48A4-9D84-7DD029882B15}">
-  <dimension ref="A1:E9"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07769C2-BC20-4B32-8DED-62CDA2FF3D9C}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="30.625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="47.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <hyperlinks>
-    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{84B33331-11F7-4A95-861F-A21E95F41214}"/>
-    <hyperlink ref="C4" location="'画像'!A1" display="'画像'!A1" xr:uid="{F98CE44C-443E-46DD-864C-6F3A7C9D59F7}"/>
-    <hyperlink ref="C5" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{C9CF3D5E-DD68-445A-BB72-92FFDC00218E}"/>
-    <hyperlink ref="C6" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{90D7730D-914A-4A04-8C1E-EB04FF85F51D}"/>
-    <hyperlink ref="C7" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{47D2D585-DE5D-4B8E-9FA3-065312074CF7}"/>
-    <hyperlink ref="C8" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{7CB5FC79-0149-410F-ADD5-135F6EDCE8F2}"/>
-    <hyperlink ref="C9" location="'閲覧権限'!A1" display="'閲覧権限'!A1" xr:uid="{0F9B3FA8-D9DC-42CE-961A-19D4F7A55446}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C46179-FB1F-4FCB-A4CF-31B495020E22}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31244FE-B71D-4B60-86CA-590D4A704A13}">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2699,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2736,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -2750,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -2768,7 +3215,9 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
+      <c r="B8" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2830,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>46</v>
@@ -2839,7 +3288,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2847,22 +3296,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2870,22 +3319,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2893,181 +3342,227 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="29">
+        <v>7</v>
+      </c>
+      <c r="B20" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D20" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29">
-        <v>5</v>
-      </c>
-      <c r="B18" s="57" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C23" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
+      <c r="G23" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="68" t="s">
+      <c r="B26" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="40" t="s">
+      <c r="C26" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="F26" s="84"/>
+      <c r="G26" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="39" t="s">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="29">
+        <v>2</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="E28" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="78"/>
+      <c r="G28" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="68" t="s">
+      <c r="B31" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71" t="s">
+      <c r="C31" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="72"/>
-      <c r="G24" s="41" t="s">
+      <c r="F31" s="84"/>
+      <c r="G31" s="61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="32">
+    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="52">
         <v>1</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="79" t="s">
+      <c r="B32" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="80"/>
-      <c r="E28" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="80"/>
-      <c r="G28" s="60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="25">
-        <v>2</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="29">
-        <v>3</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="58" t="s">
-        <v>70</v>
+      <c r="D32" s="74"/>
+      <c r="E32" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="74"/>
+      <c r="G32" s="54" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
@@ -3087,8 +3582,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D92D8A-48A2-453F-AC2D-73DA5840FE52}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08D6936-2ECC-47AB-B8A3-033B8F7FB532}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3120,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -3157,7 +3652,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -3171,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -3189,8 +3684,8 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
-        <v>15</v>
+      <c r="B8" s="86" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3253,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>46</v>
@@ -3262,7 +3757,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3270,16 +3765,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
@@ -3293,22 +3788,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3316,13 +3811,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="64" t="s">
@@ -3337,13 +3832,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="66" t="s">
@@ -3355,7 +3850,7 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3363,15 +3858,15 @@
         <v>9</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="70"/>
       <c r="F21" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>4</v>
@@ -3379,7 +3874,7 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3387,420 +3882,18 @@
         <v>9</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="82"/>
       <c r="E24" s="83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="52">
-        <v>1</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="52">
-        <v>1</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89480AC4-1859-40AE-8FA4-137227C60075}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
-        <v>1</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="25">
-        <v>3</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
-        <v>4</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29">
-        <v>5</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="61" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3811,7 +3904,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="79" t="s">
@@ -3830,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="77" t="s">
@@ -3843,7 +3936,7 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3851,18 +3944,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B575288-9099-47F4-9CEF-1CC7F332FE5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B261501-0A5B-4423-9CCF-28D0880C4BCD}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3924,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -4074,16 +4167,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
@@ -4097,16 +4190,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>36</v>
@@ -4120,13 +4213,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="64" t="s">
@@ -4141,13 +4234,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="64" t="s">
@@ -4162,13 +4255,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="66" t="s">
@@ -4180,7 +4273,7 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4188,15 +4281,15 @@
         <v>9</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="70"/>
       <c r="F22" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>4</v>
@@ -4204,7 +4297,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4212,18 +4305,18 @@
         <v>9</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" s="84"/>
       <c r="G25" s="61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4234,7 +4327,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" s="74"/>
       <c r="E26" s="73" t="s">
@@ -4247,7 +4340,7 @@
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4255,18 +4348,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F29" s="84"/>
       <c r="G29" s="61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4285,7 +4378,7 @@
       </c>
       <c r="F30" s="74"/>
       <c r="G30" s="54" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13EE06-67B8-4B76-B60E-38731C3B408A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724C38F-0186-4C58-810D-A2B2306FC7B5}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4347,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -4472,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>36</v>
@@ -4495,16 +4588,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
@@ -4518,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="66" t="s">
@@ -4536,7 +4629,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4544,15 +4637,15 @@
         <v>9</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="70"/>
       <c r="F19" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>4</v>
@@ -4560,7 +4653,7 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4568,23 +4661,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4592,18 +4685,18 @@
         <v>9</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="71" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="72"/>
       <c r="G25" s="41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4629,8 +4722,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C66440-92E9-4D43-BFA3-CE1092C6FCD3}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7FD15-FB9E-40AC-B118-2ADC79506A50}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4661,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -4809,16 +4902,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>36</v>
@@ -4832,16 +4925,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>36</v>
@@ -4855,16 +4948,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>36</v>
@@ -4878,13 +4971,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="64" t="s">
@@ -4899,13 +4992,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="64" t="s">
@@ -4920,13 +5013,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="64" t="s">
@@ -4941,13 +5034,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="66" t="s">
@@ -4959,7 +5052,7 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4967,15 +5060,15 @@
         <v>9</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="70"/>
       <c r="F24" s="40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>4</v>
@@ -4983,7 +5076,7 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4991,23 +5084,23 @@
         <v>9</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="72"/>
       <c r="G27" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5015,41 +5108,62 @@
         <v>9</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="82"/>
       <c r="E30" s="83" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F30" s="84"/>
       <c r="G30" s="61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="52">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="32">
         <v>1</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="73" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="29">
+        <v>2</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="54" t="s">
-        <v>90</v>
+      <c r="F32" s="78"/>
+      <c r="G32" s="58" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="E27:F27"/>

--- a/document/エンティティ定義書.xlsx
+++ b/document/エンティティ定義書.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFile\転職活動\ポートフォリオ\petata\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4032EE43-F807-4E4F-830A-9B6DF7761B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F15FFA9-EB4A-4517-8D06-977A7DB91D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16530" windowWidth="29040" windowHeight="15990" xr2:uid="{EF487728-AEBA-4EF4-91C7-9CA91949E2B3}"/>
+    <workbookView xWindow="-120" yWindow="16530" windowWidth="29040" windowHeight="15990" xr2:uid="{E815E780-DE96-4319-9861-2C679947932D}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
     <sheet name="エンティティ一覧" sheetId="3" r:id="rId2"/>
     <sheet name="ドメイン一覧" sheetId="4" r:id="rId3"/>
     <sheet name="バインダー" sheetId="5" r:id="rId4"/>
-    <sheet name="画像" sheetId="6" r:id="rId5"/>
-    <sheet name="ラベリング" sheetId="7" r:id="rId6"/>
-    <sheet name="ラベル" sheetId="8" r:id="rId7"/>
-    <sheet name="パスワードリセット" sheetId="9" r:id="rId8"/>
-    <sheet name="ユーザー" sheetId="10" r:id="rId9"/>
-    <sheet name="閲覧権限" sheetId="11" r:id="rId10"/>
+    <sheet name="バインダー操作権限" sheetId="6" r:id="rId5"/>
+    <sheet name="お気に入りバインダー" sheetId="7" r:id="rId6"/>
+    <sheet name="画像" sheetId="8" r:id="rId7"/>
+    <sheet name="ラベリング" sheetId="9" r:id="rId8"/>
+    <sheet name="ラベル" sheetId="10" r:id="rId9"/>
+    <sheet name="パスワードリセット" sheetId="11" r:id="rId10"/>
+    <sheet name="ユーザー" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="104">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -65,7 +66,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2020/08/12</t>
+    <t>2020/08/13</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -87,6 +88,24 @@
   </si>
   <si>
     <t>binders</t>
+  </si>
+  <si>
+    <t>バインダー操作権限</t>
+  </si>
+  <si>
+    <t>binder_authorities</t>
+  </si>
+  <si>
+    <t>ユーザーのバインダーに対する操作権限を管理する</t>
+  </si>
+  <si>
+    <t>お気に入りバインダー</t>
+  </si>
+  <si>
+    <t>binder_bookmarks</t>
+  </si>
+  <si>
+    <t>ユーザーと、当該ユーザーのお気に入りバインダーを紐付ける</t>
   </si>
   <si>
     <t>画像</t>
@@ -126,15 +145,6 @@
     <t>users</t>
   </si>
   <si>
-    <t>閲覧権限</t>
-  </si>
-  <si>
-    <t>viewing_authorities</t>
-  </si>
-  <si>
-    <t>ユーザーと、当該ユーザーの閲覧可能なバインダーを紐付ける</t>
-  </si>
-  <si>
     <t>ドメイン一覧</t>
   </si>
   <si>
@@ -249,12 +259,27 @@
     <t>binder_id</t>
   </si>
   <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>バインダーID</t>
+  </si>
+  <si>
+    <t>権限レベル</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>[1]閲覧[2]管理</t>
+  </si>
+  <si>
     <t>画像IDはハッシュ文字列</t>
   </si>
   <si>
-    <t>バインダーID</t>
-  </si>
-  <si>
     <t>ファイル名</t>
   </si>
   <si>
@@ -328,21 +353,6 @@
   </si>
   <si>
     <t>email_verified_at</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>権限レベル</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>[1]閲覧[2]管理</t>
   </si>
   <si>
     <t>makura016</t>
@@ -1579,7 +1589,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043CB4C0-6285-4F10-96F6-68D1865B6A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C41A7C-7284-4DBE-A16A-AE4A5941E37A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1610,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2097,12 +2110,1056 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE63032-3042-41F9-9790-F1DE084B4FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8179F3-9980-4925-8A1D-8FDBC7D8F7BC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29">
+        <v>3</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7073CA68-CBE3-4BEF-B875-700C410B5CB8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
+        <v>7</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="29">
+        <v>8</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="84"/>
+      <c r="G30" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="32">
+        <v>1</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="80"/>
+      <c r="G31" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A32" s="25">
+        <v>2</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="76"/>
+      <c r="G32" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="29">
+        <v>3</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="78"/>
+      <c r="G33" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3942DE84-C4AA-4845-8960-EBFD3E47062A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{561A641B-9D74-4533-BC98-90A76D8A20F4}"/>
+    <hyperlink ref="C4" location="'バインダー操作権限'!A1" display="'バインダー操作権限'!A1" xr:uid="{2C5673A7-7777-429C-BCE7-DD9F27E11B08}"/>
+    <hyperlink ref="C5" location="'お気に入りバインダー'!A1" display="'お気に入りバインダー'!A1" xr:uid="{51D41BE4-0F7D-4630-BD8E-3E294911EB58}"/>
+    <hyperlink ref="C6" location="'画像'!A1" display="'画像'!A1" xr:uid="{B6932D61-0FB7-486C-B053-8267362E42DB}"/>
+    <hyperlink ref="C7" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{B91676E0-237B-4115-B4D8-646C408CBE4E}"/>
+    <hyperlink ref="C8" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{B29AFA11-3211-4AE9-973F-E0220DF5E145}"/>
+    <hyperlink ref="C9" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{1D7EEA92-484B-4620-841A-F0CAF7F4E32E}"/>
+    <hyperlink ref="C10" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{B3A412D9-BAD6-4DC1-8F81-1A76630CD892}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EBEBF8-5D80-4475-9DC4-ADFDE01FD3E8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
+    <col min="2" max="3" width="20.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04B4652-7236-4688-B849-D59A653400F7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2119,7 +3176,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2134,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2154,14 +3211,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="15"/>
@@ -2171,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -2185,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -2203,9 +3260,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2230,7 +3285,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2238,19 +3293,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>4</v>
@@ -2261,22 +3316,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2284,22 +3339,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2307,22 +3362,451 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="29">
+        <v>4</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="84"/>
+      <c r="G26" s="61" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="32">
+        <v>1</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="80"/>
+      <c r="G27" s="60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="25">
+        <v>2</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="25">
+        <v>3</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="76"/>
+      <c r="E29" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="29">
+        <v>4</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="78"/>
+      <c r="G30" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B460C44-00AE-4DB2-8B95-8529FFE9B571}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2330,22 +3814,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -2353,20 +3837,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2374,25 +3858,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2400,15 +3884,15 @@
         <v>9</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="70"/>
       <c r="F22" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>4</v>
@@ -2416,7 +3900,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2424,18 +3908,18 @@
         <v>9</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F25" s="84"/>
       <c r="G25" s="61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2443,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="80"/>
       <c r="E26" s="79" t="s">
@@ -2454,7 +3938,7 @@
       </c>
       <c r="F26" s="80"/>
       <c r="G26" s="60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2462,23 +3946,23 @@
         <v>2</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D27" s="78"/>
       <c r="E27" s="77" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F27" s="78"/>
       <c r="G27" s="58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2486,18 +3970,18 @@
         <v>9</v>
       </c>
       <c r="B30" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="70"/>
       <c r="E30" s="71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F30" s="72"/>
       <c r="G30" s="41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2523,200 +4007,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9214963-D93C-4449-BD23-C0CEB0978CDB}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
-    <col min="2" max="4" width="30.625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="32">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29">
-        <v>7</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="31"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <hyperlinks>
-    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{D3F8BFFF-39AA-4D19-93C7-F4D46098B193}"/>
-    <hyperlink ref="C4" location="'画像'!A1" display="'画像'!A1" xr:uid="{B946A29E-6CF9-48C6-8DA3-7B6C30E59114}"/>
-    <hyperlink ref="C5" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{E44FC88B-6B44-4A91-AC34-1A7644DFB75E}"/>
-    <hyperlink ref="C6" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{7B50D38E-A7AB-41E3-AC13-EEF84776A055}"/>
-    <hyperlink ref="C7" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{837E06F2-5F1F-4109-A9B9-B193FFF3FF82}"/>
-    <hyperlink ref="C8" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{2764359F-3604-4904-9CCF-E8BC46E741E4}"/>
-    <hyperlink ref="C9" location="'閲覧権限'!A1" display="'閲覧権限'!A1" xr:uid="{1764E190-8DB4-45C6-8825-1E41CA35DAC4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3812F7-936A-4C6B-891F-AA0C90ECC16C}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A80AF94-EFFF-47C8-AD2A-B335315EC08F}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263603EA-4827-4B03-8A5D-31AE7EFFB6B8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2733,7 +4036,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2748,7 +4051,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2768,14 +4071,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="15"/>
@@ -2785,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -2799,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -2817,7 +4120,9 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
+      <c r="B8" s="45" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2842,7 +4147,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2850,19 +4155,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>4</v>
@@ -2873,22 +4178,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2896,22 +4201,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2919,184 +4224,186 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D16" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="55"/>
       <c r="F16" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="D17" s="55" t="s">
         <v>56</v>
       </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="29">
+        <v>5</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="41" t="s">
+      <c r="B21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B24" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="84"/>
+      <c r="G24" s="61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="32">
+        <v>1</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="80"/>
+      <c r="G25" s="60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="29">
+        <v>2</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="78"/>
+      <c r="G26" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="49" t="s">
+      <c r="C29" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="32">
-        <v>1</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="25">
-        <v>2</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="58" t="s">
-        <v>67</v>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="41" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+  <mergeCells count="18">
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -3110,11 +4417,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07769C2-BC20-4B32-8DED-62CDA2FF3D9C}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446B88BD-814F-4ED8-9E75-46D5E4DD2DFC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3131,7 +4446,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3146,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -3166,14 +4481,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="15"/>
@@ -3183,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -3197,7 +4512,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -3216,7 +4531,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3242,7 +4557,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3250,19 +4565,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>4</v>
@@ -3273,22 +4588,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>46</v>
-      </c>
       <c r="F14" s="62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3296,22 +4611,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3319,22 +4634,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3342,22 +4657,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -3365,22 +4680,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -3388,20 +4703,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3409,25 +4724,25 @@
         <v>7</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3435,15 +4750,15 @@
         <v>9</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="70"/>
       <c r="F23" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>4</v>
@@ -3451,7 +4766,7 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3459,18 +4774,18 @@
         <v>9</v>
       </c>
       <c r="B26" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3478,18 +4793,18 @@
         <v>1</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D27" s="80"/>
       <c r="E27" s="79" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F27" s="80"/>
       <c r="G27" s="60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3497,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="78"/>
       <c r="E28" s="77" t="s">
@@ -3508,12 +4823,12 @@
       </c>
       <c r="F28" s="78"/>
       <c r="G28" s="58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3521,18 +4836,18 @@
         <v>9</v>
       </c>
       <c r="B31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F31" s="84"/>
       <c r="G31" s="61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3540,18 +4855,18 @@
         <v>1</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D32" s="74"/>
       <c r="E32" s="73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F32" s="74"/>
       <c r="G32" s="54" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3579,11 +4894,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08D6936-2ECC-47AB-B8A3-033B8F7FB532}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430E9C3-8194-41A8-9BDF-51C69858D285}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3600,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3615,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -3635,14 +4958,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="15"/>
@@ -3652,7 +4975,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -3666,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -3685,7 +5008,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="86" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3711,7 +5034,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3719,19 +5042,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>4</v>
@@ -3742,22 +5065,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3765,22 +5088,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3788,22 +5111,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3811,20 +5134,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3832,25 +5155,25 @@
         <v>5</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="57"/>
       <c r="F18" s="66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3858,15 +5181,15 @@
         <v>9</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="70"/>
       <c r="F21" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>4</v>
@@ -3874,7 +5197,7 @@
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3882,18 +5205,18 @@
         <v>9</v>
       </c>
       <c r="B24" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D24" s="82"/>
       <c r="E24" s="83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3901,18 +5224,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="79" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F25" s="80"/>
       <c r="G25" s="60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3920,23 +5243,23 @@
         <v>2</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D26" s="78"/>
       <c r="E26" s="77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F26" s="78"/>
       <c r="G26" s="58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3944,18 +5267,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="72"/>
       <c r="G29" s="41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3981,11 +5304,19 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B261501-0A5B-4423-9CCF-28D0880C4BCD}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470534A-4892-4E10-BEA7-6852EA4DDC2A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4002,7 +5333,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4017,7 +5348,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -4037,14 +5368,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="15"/>
@@ -4054,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="50" t="s">
@@ -4068,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="51"/>
@@ -4087,7 +5418,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="45" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4113,7 +5444,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4121,19 +5452,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="61" t="s">
         <v>4</v>
@@ -4144,22 +5475,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -4167,22 +5498,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -4190,22 +5521,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -4213,20 +5544,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -4234,20 +5565,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4255,25 +5586,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4281,15 +5612,15 @@
         <v>9</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="70"/>
       <c r="F22" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>4</v>
@@ -4297,7 +5628,7 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4305,18 +5636,18 @@
         <v>9</v>
       </c>
       <c r="B25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="82"/>
       <c r="E25" s="83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F25" s="84"/>
       <c r="G25" s="61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4324,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="74"/>
       <c r="E26" s="73" t="s">
@@ -4335,12 +5666,12 @@
       </c>
       <c r="F26" s="74"/>
       <c r="G26" s="54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4348,18 +5679,18 @@
         <v>9</v>
       </c>
       <c r="B29" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="81" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>58</v>
       </c>
       <c r="D29" s="82"/>
       <c r="E29" s="83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F29" s="84"/>
       <c r="G29" s="61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4367,18 +5698,18 @@
         <v>1</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F30" s="74"/>
       <c r="G30" s="54" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4404,784 +5735,10 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724C38F-0186-4C58-810D-A2B2306FC7B5}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
-        <v>1</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29">
-        <v>3</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C7FD15-FB9E-40AC-B118-2ADC79506A50}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
-        <v>1</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="25">
-        <v>3</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
-        <v>4</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="25">
-        <v>6</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="25">
-        <v>7</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="29">
-        <v>8</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="32">
-        <v>1</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="29">
-        <v>2</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/document/エンティティ定義書.xlsx
+++ b/document/エンティティ定義書.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFile\転職活動\ポートフォリオ\petata\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F15FFA9-EB4A-4517-8D06-977A7DB91D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{386D7059-CE71-4FAA-B9C7-FA9BD20A5E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16530" windowWidth="29040" windowHeight="15990" xr2:uid="{E815E780-DE96-4319-9861-2C679947932D}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{58E6BD9D-FD10-41A0-A776-9AF70C4E40A8}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
     <sheet name="エンティティ一覧" sheetId="3" r:id="rId2"/>
-    <sheet name="ドメイン一覧" sheetId="4" r:id="rId3"/>
-    <sheet name="バインダー" sheetId="5" r:id="rId4"/>
-    <sheet name="バインダー操作権限" sheetId="6" r:id="rId5"/>
-    <sheet name="お気に入りバインダー" sheetId="7" r:id="rId6"/>
-    <sheet name="画像" sheetId="8" r:id="rId7"/>
-    <sheet name="ラベリング" sheetId="9" r:id="rId8"/>
-    <sheet name="ラベル" sheetId="10" r:id="rId9"/>
-    <sheet name="パスワードリセット" sheetId="11" r:id="rId10"/>
-    <sheet name="ユーザー" sheetId="12" r:id="rId11"/>
+    <sheet name="バインダー" sheetId="4" r:id="rId3"/>
+    <sheet name="バインダー操作権限" sheetId="5" r:id="rId4"/>
+    <sheet name="お気に入りバインダー" sheetId="6" r:id="rId5"/>
+    <sheet name="画像" sheetId="7" r:id="rId6"/>
+    <sheet name="ラベリング" sheetId="8" r:id="rId7"/>
+    <sheet name="ラベル" sheetId="9" r:id="rId8"/>
+    <sheet name="パスワードリセット" sheetId="10" r:id="rId9"/>
+    <sheet name="ユーザー" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="111">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -66,7 +65,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2020/08/13</t>
+    <t>2020/09/18</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -117,7 +116,7 @@
     <t>ラベリング</t>
   </si>
   <si>
-    <t>labeling</t>
+    <t>labelings</t>
   </si>
   <si>
     <t>画像とラベルを紐付ける_x000D_
@@ -145,39 +144,30 @@
     <t>users</t>
   </si>
   <si>
-    <t>ドメイン一覧</t>
-  </si>
-  <si>
-    <t>ドメイン名</t>
+    <t>エンティティ情報</t>
+  </si>
+  <si>
+    <t>スキーマ名</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>更新日</t>
+  </si>
+  <si>
+    <t>カラム情報</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>物理名</t>
   </si>
   <si>
     <t>データ型</t>
   </si>
   <si>
-    <t>コメント</t>
-  </si>
-  <si>
-    <t>エンティティ情報</t>
-  </si>
-  <si>
-    <t>スキーマ名</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>更新日</t>
-  </si>
-  <si>
-    <t>カラム情報</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
-    <t>物理名</t>
-  </si>
-  <si>
     <t>Not Null</t>
   </si>
   <si>
@@ -190,22 +180,40 @@
     <t>id</t>
   </si>
   <si>
-    <t>@INT</t>
+    <t>BIGINT</t>
   </si>
   <si>
     <t>Yes (PK)</t>
   </si>
   <si>
+    <t>作成ユーザーID</t>
+  </si>
+  <si>
+    <t>create_user_id</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>users.id</t>
+  </si>
+  <si>
     <t>名前</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>@VARCHAR</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>TEXT</t>
   </si>
   <si>
     <t>作成日時</t>
@@ -214,7 +222,7 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>@DATETIME</t>
+    <t>DATETIME</t>
   </si>
   <si>
     <t>更新日時</t>
@@ -223,24 +231,15 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
+    <t>リレーションシップ情報(FK側)</t>
+  </si>
+  <si>
+    <t>動詞句</t>
   </si>
   <si>
     <t>カラムリスト</t>
   </si>
   <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>リレーションシップ情報(FK側)</t>
-  </si>
-  <si>
-    <t>動詞句</t>
-  </si>
-  <si>
     <t>参照先エンティティ名</t>
   </si>
   <si>
@@ -274,33 +273,60 @@
     <t>level</t>
   </si>
   <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
     <t>[1]閲覧[2]管理</t>
   </si>
   <si>
     <t>画像IDはハッシュ文字列</t>
   </si>
   <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
     <t>アップロードユーザーID</t>
   </si>
   <si>
     <t>upload_user_id</t>
   </si>
   <si>
-    <t>users.id</t>
-  </si>
-  <si>
-    <t>表示フラグ</t>
+    <t>アプリ上のファイル名</t>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>ストレージ上のファイル物理名</t>
+  </si>
+  <si>
+    <t>拡張子</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>ファイル拡張子</t>
+  </si>
+  <si>
+    <t>並び順</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>ファイルの並び順</t>
+  </si>
+  <si>
+    <t>表示可能フラグ</t>
   </si>
   <si>
     <t>visible</t>
   </si>
   <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -317,12 +343,6 @@
   </si>
   <si>
     <t>label_id</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -482,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -798,9 +818,61 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -813,116 +885,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -932,10 +898,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -948,7 +914,7 @@
       <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -961,7 +927,7 @@
       <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -996,7 +962,50 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1010,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,15 +1137,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1167,13 +1167,13 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1215,58 +1215,64 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,10 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C41A7C-7284-4DBE-A16A-AE4A5941E37A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A816DC-70F3-4883-AE3B-36DA4A442A5F}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1623,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -2110,20 +2113,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8179F3-9980-4925-8A1D-8FDBC7D8F7BC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293455D-5F37-4AF7-8BD8-DBC5533C3DF2}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2139,81 +2134,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>29</v>
+      <c r="C5" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>30</v>
+      <c r="C6" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -2223,7 +2218,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2248,29 +2243,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2278,147 +2273,316 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="55" t="s">
+      <c r="B15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="25">
+        <v>3</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="D17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29">
+      <c r="E17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
+        <v>6</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
+        <v>7</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="29">
+        <v>8</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A28" s="32">
+        <v>1</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="76"/>
+      <c r="E28" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="25">
+        <v>2</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A30" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="41" t="s">
+      <c r="B30" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="41" t="s">
-        <v>69</v>
+      <c r="B31" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2432,513 +2596,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7073CA68-CBE3-4BEF-B875-700C410B5CB8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
-        <v>1</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="25">
-        <v>3</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
-        <v>4</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="25">
-        <v>5</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="25">
-        <v>6</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="25">
-        <v>7</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="29">
-        <v>8</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="32">
-        <v>1</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="25">
-        <v>2</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="29">
-        <v>3</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="78"/>
-      <c r="G33" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3942DE84-C4AA-4845-8960-EBFD3E47062A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7737C7-4339-43F1-9384-9C70804F9BA7}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2980,7 +2642,7 @@
       <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="33"/>
@@ -2993,7 +2655,7 @@
       <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="77" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="26" t="s">
@@ -3008,7 +2670,7 @@
       <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="26" t="s">
@@ -3023,7 +2685,7 @@
       <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="77" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -3038,7 +2700,7 @@
       <c r="B7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="77" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -3053,7 +2715,7 @@
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="77" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -3068,7 +2730,7 @@
       <c r="B9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="26"/>
@@ -3081,7 +2743,7 @@
       <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="86" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="30"/>
@@ -3090,76 +2752,21 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{561A641B-9D74-4533-BC98-90A76D8A20F4}"/>
-    <hyperlink ref="C4" location="'バインダー操作権限'!A1" display="'バインダー操作権限'!A1" xr:uid="{2C5673A7-7777-429C-BCE7-DD9F27E11B08}"/>
-    <hyperlink ref="C5" location="'お気に入りバインダー'!A1" display="'お気に入りバインダー'!A1" xr:uid="{51D41BE4-0F7D-4630-BD8E-3E294911EB58}"/>
-    <hyperlink ref="C6" location="'画像'!A1" display="'画像'!A1" xr:uid="{B6932D61-0FB7-486C-B053-8267362E42DB}"/>
-    <hyperlink ref="C7" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{B91676E0-237B-4115-B4D8-646C408CBE4E}"/>
-    <hyperlink ref="C8" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{B29AFA11-3211-4AE9-973F-E0220DF5E145}"/>
-    <hyperlink ref="C9" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{1D7EEA92-484B-4620-841A-F0CAF7F4E32E}"/>
-    <hyperlink ref="C10" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{B3A412D9-BAD6-4DC1-8F81-1A76630CD892}"/>
+    <hyperlink ref="C3" location="'バインダー'!A1" display="'バインダー'!A1" xr:uid="{CC89B098-4BDF-4884-9942-116BBBA0C7F3}"/>
+    <hyperlink ref="C4" location="'バインダー操作権限'!A1" display="'バインダー操作権限'!A1" xr:uid="{A2D9A448-53F6-4448-A544-16F82EB18358}"/>
+    <hyperlink ref="C5" location="'お気に入りバインダー'!A1" display="'お気に入りバインダー'!A1" xr:uid="{6819FA0D-4981-450B-AECF-43A2CC2C1743}"/>
+    <hyperlink ref="C6" location="'画像'!A1" display="'画像'!A1" xr:uid="{89897F88-C267-45C7-82BB-01C6813DAB1F}"/>
+    <hyperlink ref="C7" location="'ラベリング'!A1" display="'ラベリング'!A1" xr:uid="{F7A85BBA-7A91-480A-9FD9-BE7D7E7A0DD6}"/>
+    <hyperlink ref="C8" location="'ラベル'!A1" display="'ラベル'!A1" xr:uid="{3772E2BF-3D9D-4FDF-AE5A-C4F58C4CEFE9}"/>
+    <hyperlink ref="C9" location="'パスワードリセット'!A1" display="'パスワードリセット'!A1" xr:uid="{63BF3CFE-5154-4A52-9F4F-1ADE82FE3CD5}"/>
+    <hyperlink ref="C10" location="'ユーザー'!A1" display="'ユーザー'!A1" xr:uid="{DE991D38-0D32-4662-983A-7D132CE7C45A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EBEBF8-5D80-4475-9DC4-ADFDE01FD3E8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" style="23" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04B4652-7236-4688-B849-D59A653400F7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693DB973-12E7-4791-A38A-94D51D170EB8}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3176,81 +2783,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -3260,7 +2867,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3285,29 +2892,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3315,136 +2922,175 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>4</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29">
-        <v>4</v>
-      </c>
-      <c r="B17" s="57" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>5</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C18" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>39</v>
+      <c r="D18" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="29">
+        <v>6</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="39" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="B22" s="46" t="s">
         <v>63</v>
       </c>
+      <c r="C22" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="58" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="72"/>
-      <c r="G23" s="41" t="s">
-        <v>66</v>
+      <c r="A23" s="49">
+        <v>1</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="66"/>
+      <c r="G23" s="51" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3456,18 +3102,18 @@
       <c r="A26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="61" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="58" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3475,18 +3121,18 @@
       <c r="A27" s="32">
         <v>1</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="79" t="s">
+      <c r="B27" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="60" t="s">
+      <c r="F27" s="76"/>
+      <c r="G27" s="57" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3494,18 +3140,18 @@
       <c r="A28" s="25">
         <v>2</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="75" t="s">
+      <c r="B28" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="56" t="s">
+      <c r="F28" s="74"/>
+      <c r="G28" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3513,18 +3159,18 @@
       <c r="A29" s="25">
         <v>3</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75" t="s">
+      <c r="B29" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="56" t="s">
+      <c r="F29" s="74"/>
+      <c r="G29" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3532,35 +3178,37 @@
       <c r="A30" s="29">
         <v>4</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="77" t="s">
+      <c r="B30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="58" t="s">
+      <c r="F30" s="68"/>
+      <c r="G30" s="55" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -3574,20 +3222,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B460C44-00AE-4DB2-8B95-8529FFE9B571}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0612BBA-0613-433D-98C2-A485A6F04121}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3603,81 +3243,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -3687,7 +3327,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="6"/>
@@ -3714,29 +3354,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3744,256 +3384,232 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
+      <c r="D16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="64" t="s">
+      <c r="D17" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="65" t="s">
-        <v>39</v>
+      <c r="E17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>39</v>
+      <c r="B18" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29">
         <v>6</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>39</v>
+      <c r="B19" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+      <c r="B22" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="35" t="s">
+      <c r="C22" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="32">
+        <v>1</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="76"/>
+      <c r="E23" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="76"/>
+      <c r="G23" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="29">
+        <v>2</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="G24" s="55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B27" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="32">
-        <v>1</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29">
-        <v>2</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="41" t="s">
+      <c r="F27" s="83"/>
+      <c r="G27" s="84" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4007,20 +3623,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263603EA-4827-4B03-8A5D-31AE7EFFB6B8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G29"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB86E75-7AF3-4E16-BFB1-CD6B782EF54F}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4036,81 +3644,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -4120,7 +3728,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6"/>
@@ -4147,29 +3755,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4177,233 +3785,209 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
+      <c r="D16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>39</v>
+      <c r="B17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="29">
         <v>5</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>39</v>
+      <c r="B18" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="B21" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
+      <c r="C21" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="32">
+        <v>1</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="29">
+        <v>2</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B26" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="32">
-        <v>1</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="29">
-        <v>2</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="41" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="84" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -4417,19 +4001,11 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446B88BD-814F-4ED8-9E75-46D5E4DD2DFC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845FB9DC-A344-44B1-801D-ACF4D683A216}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4446,81 +4022,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -4530,7 +4106,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6"/>
@@ -4557,29 +4133,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4587,91 +4163,91 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>77</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="55" t="s">
+      <c r="B17" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="65" t="s">
+      <c r="E17" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4679,112 +4255,157 @@
       <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="62" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="29">
+      <c r="B19" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="25">
+        <v>8</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="25">
+        <v>9</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+      <c r="D22" s="52" t="s">
         <v>59</v>
       </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="29">
+        <v>10</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>4</v>
+      <c r="D23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="61" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="58" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4792,38 +4413,38 @@
       <c r="A27" s="32">
         <v>1</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="79" t="s">
+      <c r="B27" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="79" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="60" t="s">
-        <v>47</v>
+      <c r="F27" s="76"/>
+      <c r="G27" s="57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="29">
         <v>2</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="77" t="s">
+      <c r="B28" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="77" t="s">
+      <c r="D28" s="68"/>
+      <c r="E28" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="58" t="s">
-        <v>47</v>
+      <c r="F28" s="68"/>
+      <c r="G28" s="55" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4835,38 +4456,38 @@
       <c r="A31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83" t="s">
+      <c r="D31" s="70"/>
+      <c r="E31" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="84"/>
-      <c r="G31" s="61" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="52">
+      <c r="A32" s="49">
         <v>1</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="73" t="s">
+      <c r="B32" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="54" t="s">
-        <v>87</v>
+      <c r="F32" s="66"/>
+      <c r="G32" s="51" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4894,20 +4515,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430E9C3-8194-41A8-9BDF-51C69858D285}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F238EADB-A180-4964-8E05-6D1FBC40C21D}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4923,81 +4536,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -5007,7 +4620,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="85" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="6"/>
@@ -5034,29 +4647,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5064,233 +4677,209 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="55" t="s">
+      <c r="B15" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
+      <c r="B16" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>39</v>
+      <c r="B17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="29">
         <v>5</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>39</v>
+      <c r="B18" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="B21" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
+      <c r="C21" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="32">
+        <v>1</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="29">
+        <v>2</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B26" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="84"/>
-      <c r="G24" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="32">
-        <v>1</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="29">
-        <v>2</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
+      <c r="D26" s="81"/>
+      <c r="E26" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="41" t="s">
+      <c r="F26" s="83"/>
+      <c r="G26" s="84" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5304,20 +4893,12 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470534A-4892-4E10-BEA7-6852EA4DDC2A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0D997-F78D-49D0-A368-4891DF64017B}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5333,81 +4914,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="46" t="s">
-        <v>103</v>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>39</v>
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="43"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="43"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -5417,7 +4998,7 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="6"/>
@@ -5444,29 +5025,29 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="58" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5474,254 +5055,253 @@
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>39</v>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>39</v>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>39</v>
+      <c r="E16" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>39</v>
+      <c r="B17" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="29">
+      <c r="B18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
+      <c r="D19" s="52" t="s">
         <v>59</v>
       </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="29">
+        <v>7</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+      <c r="B23" s="46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="35" t="s">
+      <c r="C23" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="49">
+        <v>1</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="66"/>
+      <c r="G24" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A27" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B27" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="52">
+      <c r="D27" s="70"/>
+      <c r="E27" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="49">
         <v>1</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="52">
-        <v>1</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="73" t="s">
+      <c r="B28" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="54" t="s">
-        <v>90</v>
+      <c r="F28" s="66"/>
+      <c r="G28" s="51" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -5735,10 +5315,295 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lエンティティ定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A7D21C-AF3D-46D9-A579-22ACFD67967A}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="38" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="42"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="25">
+        <v>2</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29">
+        <v>3</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>